--- a/biology/Botanique/Diospyros_monbuttensis/Diospyros_monbuttensis.xlsx
+++ b/biology/Botanique/Diospyros_monbuttensis/Diospyros_monbuttensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diospyros monbuttensis est une espèce de plantes à fleurs de la famille des Ebenaceae et du genre Diospyros, présente en Afrique tropicale[2].
-Son épithète spécifique monbuttensis fait référence au pays des Mangbetu (ou Monbuttu), une population d'Afrique centrale vivant au nord-est de l'actuelle république démocratique du Congo, où le botaniste allemand Georg August Schweinfurth la découvrit le 12 avril 1870, au bord de l'Uele (Welle[3]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diospyros monbuttensis est une espèce de plantes à fleurs de la famille des Ebenaceae et du genre Diospyros, présente en Afrique tropicale.
+Son épithète spécifique monbuttensis fait référence au pays des Mangbetu (ou Monbuttu), une population d'Afrique centrale vivant au nord-est de l'actuelle république démocratique du Congo, où le botaniste allemand Georg August Schweinfurth la découvrit le 12 avril 1870, au bord de l'Uele (Welle).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste ou petit arbre, d'une hauteur de 10 m, avec un tronc très cannelé, une écorce lisse brun-pourpre, des branches portant de grandes épines acérées. Les fleurs, à corolle blanc crème sont odorantes. À maturité, les fruits sont jaunes ou orangés[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste ou petit arbre, d'une hauteur de 10 m, avec un tronc très cannelé, une écorce lisse brun-pourpre, des branches portant de grandes épines acérées. Les fleurs, à corolle blanc crème sont odorantes. À maturité, les fruits sont jaunes ou orangés.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, de la Côte d'Ivoire jusqu'au sud du Nigeria et vers le nord de la république démocratique du Congo[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, de la Côte d'Ivoire jusqu'au sud du Nigeria et vers le nord de la république démocratique du Congo.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très commune, on la rencontre dans les sous-bois des forêts denses semi-décidues, dans les forêts galeries, les jachères, les savanes, les fourrés[5],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très commune, on la rencontre dans les sous-bois des forêts denses semi-décidues, dans les forêts galeries, les jachères, les savanes, les fourrés,.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois est dur, dense et résistant. On s'en sert pour faire des cannes, des manches d'outils, des chevrons. On utilise aussi les branches flexibles pour confectionner des pièges[2].
-Différentes parties de la plante sont utilisées en médecine traditionnelle pour traiter la lèpre, les douleurs d'estomac, les œdèmes, la varicelle, les poussées dentaires chez les enfants[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois est dur, dense et résistant. On s'en sert pour faire des cannes, des manches d'outils, des chevrons. On utilise aussi les branches flexibles pour confectionner des pièges.
+Différentes parties de la plante sont utilisées en médecine traditionnelle pour traiter la lèpre, les douleurs d'estomac, les œdèmes, la varicelle, les poussées dentaires chez les enfants.
 </t>
         </is>
       </c>
